--- a/templateNewer.xlsx
+++ b/templateNewer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B122AD20-ED17-44E0-BE85-FCA8911C440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2033478B-53EE-4065-9DF5-C7BAB3750D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="330" windowWidth="12070" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="999" sheetId="3" r:id="rId1"/>
